--- a/Final Project/Data/household-air-pollution-deaths-by-region.xlsx
+++ b/Final Project/Data/household-air-pollution-deaths-by-region.xlsx
@@ -1,28 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_repos\Portfolio-Telling-Stories-Using-Data\Final Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259BAAC1-458A-4CBD-8451-4EFA7C6D382D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E091DD1C-798E-4414-AE3A-1024E1590BED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="12">
   <si>
-    <t>Household air pollution (deaths)</t>
+    <t>Central Europe, Eastern Europe, and Central Asia</t>
+  </si>
+  <si>
+    <t>Eastern Europe</t>
+  </si>
+  <si>
+    <t>Latin America and Caribbean</t>
+  </si>
+  <si>
+    <t>North Africa and Middle East</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Southeast Asia, East Asia, and Oceania</t>
+  </si>
+  <si>
+    <t>Southern Latin America</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
   </si>
   <si>
     <t>Entity</t>
@@ -31,38 +60,15 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Oceania</t>
+    <t>Household air pollution (deaths)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -86,39 +92,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -141,44 +129,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -206,31 +194,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -258,23 +229,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,2040 +240,2942 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1990</v>
       </c>
-      <c r="C2">
-        <v>978681.84688400012</v>
+      <c r="C2" s="1">
+        <v>82687.546719999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>1991</v>
       </c>
-      <c r="C3">
-        <v>980119.35684500006</v>
+      <c r="C3" s="1">
+        <v>81564.587239999993</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>1992</v>
       </c>
-      <c r="C4">
-        <v>988712.88000999996</v>
+      <c r="C4" s="1">
+        <v>81798.642340000006</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>1993</v>
       </c>
-      <c r="C5">
-        <v>1000673.106528</v>
+      <c r="C5" s="1">
+        <v>81668.853900000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
+      <c r="A6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>1994</v>
       </c>
-      <c r="C6">
-        <v>1013009.294167</v>
+      <c r="C6" s="1">
+        <v>81536.420069999993</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
+      <c r="A7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>1995</v>
       </c>
-      <c r="C7">
-        <v>1026837.377719</v>
+      <c r="C7" s="1">
+        <v>80793.563320000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
+      <c r="A8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>1996</v>
       </c>
-      <c r="C8">
-        <v>1038649.970176</v>
+      <c r="C8" s="1">
+        <v>77932.16648</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
+      <c r="A9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>1997</v>
       </c>
-      <c r="C9">
-        <v>1048483.7896669999</v>
+      <c r="C9" s="1">
+        <v>74554.090209999995</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
+      <c r="A10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>1998</v>
       </c>
-      <c r="C10">
-        <v>1056600.893126</v>
+      <c r="C10" s="1">
+        <v>70581.533450000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
+      <c r="A11" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <v>1999</v>
       </c>
-      <c r="C11">
-        <v>1057836.4997119999</v>
+      <c r="C11" s="1">
+        <v>68362.83971</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
+      <c r="A12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B12" s="1">
         <v>2000</v>
       </c>
-      <c r="C12">
-        <v>1060818.5139009999</v>
+      <c r="C12" s="1">
+        <v>65959.962780000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>2001</v>
       </c>
-      <c r="C13">
-        <v>1049546.6696659999</v>
+      <c r="C13" s="1">
+        <v>63671.393550000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B14" s="1">
         <v>2002</v>
       </c>
-      <c r="C14">
-        <v>1038818.8446759999</v>
+      <c r="C14" s="1">
+        <v>62365.25159</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
+      <c r="A15" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B15" s="1">
         <v>2003</v>
       </c>
-      <c r="C15">
-        <v>1031272.748516</v>
+      <c r="C15" s="1">
+        <v>60830.811390000003</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
+      <c r="A16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B16" s="1">
         <v>2004</v>
       </c>
-      <c r="C16">
-        <v>1021019.822823</v>
+      <c r="C16" s="1">
+        <v>58701.696539999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
+      <c r="A17" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B17" s="1">
         <v>2005</v>
       </c>
-      <c r="C17">
-        <v>1006379.810731</v>
+      <c r="C17" s="1">
+        <v>57431.553950000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
+      <c r="A18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B18" s="1">
         <v>2006</v>
       </c>
-      <c r="C18">
-        <v>997729.99947300006</v>
+      <c r="C18" s="1">
+        <v>54014.76038</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
+      <c r="A19" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B19" s="1">
         <v>2007</v>
       </c>
-      <c r="C19">
-        <v>981785.50763100001</v>
+      <c r="C19" s="1">
+        <v>51337.090470000003</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
+      <c r="A20" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B20" s="1">
         <v>2008</v>
       </c>
-      <c r="C20">
-        <v>961105.70502499992</v>
+      <c r="C20" s="1">
+        <v>48941.432910000003</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
+      <c r="A21" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B21" s="1">
         <v>2009</v>
       </c>
-      <c r="C21">
-        <v>946373.14998600003</v>
+      <c r="C21" s="1">
+        <v>46533.94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
+      <c r="A22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B22" s="1">
         <v>2010</v>
       </c>
-      <c r="C22">
-        <v>930396.44565200002</v>
+      <c r="C22" s="1">
+        <v>44553.326099999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
+      <c r="A23" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B23" s="1">
         <v>2011</v>
       </c>
-      <c r="C23">
-        <v>915052.76932399999</v>
+      <c r="C23" s="1">
+        <v>41754.365230000003</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
+      <c r="A24" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B24" s="1">
         <v>2012</v>
       </c>
-      <c r="C24">
-        <v>896786.03318100004</v>
+      <c r="C24" s="1">
+        <v>41408.855609999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
+      <c r="A25" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B25" s="1">
         <v>2013</v>
       </c>
-      <c r="C25">
-        <v>886744.74076800002</v>
+      <c r="C25" s="1">
+        <v>39979.650690000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
+      <c r="A26" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B26" s="1">
         <v>2014</v>
       </c>
-      <c r="C26">
-        <v>876300.97194299998</v>
+      <c r="C26" s="1">
+        <v>39054.662929999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>3</v>
+      <c r="A27" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B27" s="1">
         <v>2015</v>
       </c>
-      <c r="C27">
-        <v>843336.99286999996</v>
+      <c r="C27" s="1">
+        <v>37902.799890000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
+      <c r="A28" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B28" s="1">
         <v>2016</v>
       </c>
-      <c r="C28">
-        <v>837304.04386599991</v>
+      <c r="C28" s="1">
+        <v>37332.579180000001</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
+      <c r="A29" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B29" s="1">
         <v>2017</v>
       </c>
-      <c r="C29">
-        <v>826099.68571899994</v>
+      <c r="C29" s="1">
+        <v>36063.235480000003</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
+      <c r="A30" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>1990</v>
       </c>
-      <c r="C30">
-        <v>1103715.47637</v>
+      <c r="C30" s="1">
+        <v>13989.16296</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>4</v>
+      <c r="A31" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>1991</v>
       </c>
-      <c r="C31">
-        <v>1081276.3818099999</v>
+      <c r="C31" s="1">
+        <v>13934.179969999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
+      <c r="A32" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>1992</v>
       </c>
-      <c r="C32">
-        <v>1054653.73854</v>
+      <c r="C32" s="1">
+        <v>13950.539419999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>4</v>
+      <c r="A33" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>1993</v>
       </c>
-      <c r="C33">
-        <v>1024703.49784</v>
+      <c r="C33" s="1">
+        <v>14470.701800000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>4</v>
+      <c r="A34" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>1994</v>
       </c>
-      <c r="C34">
-        <v>996121.38306000002</v>
+      <c r="C34" s="1">
+        <v>14985.03499</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>4</v>
+      <c r="A35" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>1995</v>
       </c>
-      <c r="C35">
-        <v>963752.74972999992</v>
+      <c r="C35" s="1">
+        <v>15523.998610000001</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
+      <c r="A36" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>1996</v>
       </c>
-      <c r="C36">
-        <v>930576.84629000002</v>
+      <c r="C36" s="1">
+        <v>14507.94744</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>4</v>
+      <c r="A37" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>1997</v>
       </c>
-      <c r="C37">
-        <v>896505.41038999998</v>
+      <c r="C37" s="1">
+        <v>13437.141</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
+      <c r="A38" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>1998</v>
       </c>
-      <c r="C38">
-        <v>868888.98690999998</v>
+      <c r="C38" s="1">
+        <v>12671.588890000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>4</v>
+      <c r="A39" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B39" s="1">
         <v>1999</v>
       </c>
-      <c r="C39">
-        <v>840311.29452</v>
+      <c r="C39" s="1">
+        <v>12884.77973</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
+      <c r="A40" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B40" s="1">
         <v>2000</v>
       </c>
-      <c r="C40">
-        <v>818157.60082000005</v>
+      <c r="C40" s="1">
+        <v>12877.03982</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>4</v>
+      <c r="A41" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B41" s="1">
         <v>2001</v>
       </c>
-      <c r="C41">
-        <v>789946.69628999988</v>
+      <c r="C41" s="1">
+        <v>12512.40957</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>4</v>
+      <c r="A42" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>2002</v>
       </c>
-      <c r="C42">
-        <v>771386.50601000001</v>
+      <c r="C42" s="1">
+        <v>12361.0674</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>4</v>
+      <c r="A43" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>2003</v>
       </c>
-      <c r="C43">
-        <v>755492.38516999991</v>
+      <c r="C43" s="1">
+        <v>12011.00619</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>4</v>
+      <c r="A44" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>2004</v>
       </c>
-      <c r="C44">
-        <v>733192.27557000006</v>
+      <c r="C44" s="1">
+        <v>11677.33273</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>4</v>
+      <c r="A45" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>2005</v>
       </c>
-      <c r="C45">
-        <v>699805.16205000004</v>
+      <c r="C45" s="1">
+        <v>11467.86073</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>4</v>
+      <c r="A46" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>2006</v>
       </c>
-      <c r="C46">
-        <v>655928.41414000001</v>
+      <c r="C46" s="1">
+        <v>10162.90452</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>4</v>
+      <c r="A47" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>2007</v>
       </c>
-      <c r="C47">
-        <v>626240.46568000002</v>
+      <c r="C47" s="1">
+        <v>9484.9219539999995</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>4</v>
+      <c r="A48" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>2008</v>
       </c>
-      <c r="C48">
-        <v>608188.96762000001</v>
+      <c r="C48" s="1">
+        <v>8811.5568739999999</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>4</v>
+      <c r="A49" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B49" s="1">
         <v>2009</v>
       </c>
-      <c r="C49">
-        <v>593971.29624000005</v>
+      <c r="C49" s="1">
+        <v>7836.0140520000004</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>4</v>
+      <c r="A50" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B50" s="1">
         <v>2010</v>
       </c>
-      <c r="C50">
-        <v>577506.25075000001</v>
+      <c r="C50" s="1">
+        <v>7319.0652579999996</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>4</v>
+      <c r="A51" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B51" s="1">
         <v>2011</v>
       </c>
-      <c r="C51">
-        <v>557088.09095999994</v>
+      <c r="C51" s="1">
+        <v>6586.4681369999998</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>4</v>
+      <c r="A52" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B52" s="1">
         <v>2012</v>
       </c>
-      <c r="C52">
-        <v>550590.37279000005</v>
+      <c r="C52" s="1">
+        <v>6356.0148470000004</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>4</v>
+      <c r="A53" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B53" s="1">
         <v>2013</v>
       </c>
-      <c r="C53">
-        <v>527677.03245000006</v>
+      <c r="C53" s="1">
+        <v>6065.1832100000001</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>4</v>
+      <c r="A54" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B54" s="1">
         <v>2014</v>
       </c>
-      <c r="C54">
-        <v>525163.43995999999</v>
+      <c r="C54" s="1">
+        <v>5748.0407400000004</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>4</v>
+      <c r="A55" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B55" s="1">
         <v>2015</v>
       </c>
-      <c r="C55">
-        <v>522129.25241000002</v>
+      <c r="C55" s="1">
+        <v>5921.9534610000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>4</v>
+      <c r="A56" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B56" s="1">
         <v>2016</v>
       </c>
-      <c r="C56">
-        <v>527896.08565000002</v>
+      <c r="C56" s="1">
+        <v>5576.5578150000001</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>4</v>
+      <c r="A57" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B57" s="1">
         <v>2017</v>
       </c>
-      <c r="C57">
-        <v>499904.7108</v>
+      <c r="C57" s="1">
+        <v>5224.4710560000003</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>5</v>
+      <c r="A58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B58" s="1">
         <v>1990</v>
       </c>
-      <c r="C58">
-        <v>153332.97395099999</v>
+      <c r="C58" s="1">
+        <v>99439.802119999993</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>5</v>
+      <c r="A59" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B59" s="1">
         <v>1991</v>
       </c>
-      <c r="C59">
-        <v>149794.250749</v>
+      <c r="C59" s="1">
+        <v>96743.911829999997</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>5</v>
+      <c r="A60" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B60" s="1">
         <v>1992</v>
       </c>
-      <c r="C60">
-        <v>148350.94678500001</v>
+      <c r="C60" s="1">
+        <v>95363.706229999996</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>5</v>
+      <c r="A61" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B61" s="1">
         <v>1993</v>
       </c>
-      <c r="C61">
-        <v>146503.59424599999</v>
+      <c r="C61" s="1">
+        <v>93445.795769999997</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>5</v>
+      <c r="A62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B62" s="1">
         <v>1994</v>
       </c>
-      <c r="C62">
-        <v>144572.77898500001</v>
+      <c r="C62" s="1">
+        <v>89852.813649999996</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>5</v>
+      <c r="A63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B63" s="1">
         <v>1995</v>
       </c>
-      <c r="C63">
-        <v>142729.35978999999</v>
+      <c r="C63" s="1">
+        <v>85924.649019999997</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>5</v>
+      <c r="A64" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B64" s="1">
         <v>1996</v>
       </c>
-      <c r="C64">
-        <v>136970.28782299999</v>
+      <c r="C64" s="1">
+        <v>82196.784950000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>5</v>
+      <c r="A65" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B65" s="1">
         <v>1997</v>
       </c>
-      <c r="C65">
-        <v>130457.674227</v>
+      <c r="C65" s="1">
+        <v>78839.778969999999</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>5</v>
+      <c r="A66" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B66" s="1">
         <v>1998</v>
       </c>
-      <c r="C66">
-        <v>122736.6343552</v>
+      <c r="C66" s="1">
+        <v>76124.727010000002</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>5</v>
+      <c r="A67" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B67" s="1">
         <v>1999</v>
       </c>
-      <c r="C67">
-        <v>118760.9631711</v>
+      <c r="C67" s="1">
+        <v>72824.882159999994</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>5</v>
+      <c r="A68" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B68" s="1">
         <v>2000</v>
       </c>
-      <c r="C68">
-        <v>113978.69002720001</v>
+      <c r="C68" s="1">
+        <v>70111.737009999997</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>5</v>
+      <c r="A69" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B69" s="1">
         <v>2001</v>
       </c>
-      <c r="C69">
-        <v>109311.950631</v>
+      <c r="C69" s="1">
+        <v>68151.681270000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>5</v>
+      <c r="A70" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B70" s="1">
         <v>2002</v>
       </c>
-      <c r="C70">
-        <v>106637.8731003</v>
+      <c r="C70" s="1">
+        <v>67171.084789999994</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>5</v>
+      <c r="A71" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <v>2003</v>
       </c>
-      <c r="C71">
-        <v>103370.4568821</v>
+      <c r="C71" s="1">
+        <v>66294.224430000002</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>5</v>
+      <c r="A72" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B72" s="1">
         <v>2004</v>
       </c>
-      <c r="C72">
-        <v>99187.694814499991</v>
+      <c r="C72" s="1">
+        <v>64970.63164</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>5</v>
+      <c r="A73" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B73" s="1">
         <v>2005</v>
       </c>
-      <c r="C73">
-        <v>96903.471785600006</v>
+      <c r="C73" s="1">
+        <v>63044.29191</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>5</v>
+      <c r="A74" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B74" s="1">
         <v>2006</v>
       </c>
-      <c r="C74">
-        <v>90732.097365299996</v>
+      <c r="C74" s="1">
+        <v>61351.5694</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>5</v>
+      <c r="A75" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B75" s="1">
         <v>2007</v>
       </c>
-      <c r="C75">
-        <v>86191.591383200022</v>
+      <c r="C75" s="1">
+        <v>59472.323170000003</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>5</v>
+      <c r="A76" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B76" s="1">
         <v>2008</v>
       </c>
-      <c r="C76">
-        <v>82054.109594900001</v>
+      <c r="C76" s="1">
+        <v>58484.709369999997</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>5</v>
+      <c r="A77" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B77" s="1">
         <v>2009</v>
       </c>
-      <c r="C77">
-        <v>77876.850427100013</v>
+      <c r="C77" s="1">
+        <v>58111.045619999997</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>5</v>
+      <c r="A78" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <v>2010</v>
       </c>
-      <c r="C78">
-        <v>74435.986496099998</v>
+      <c r="C78" s="1">
+        <v>56615.140099999997</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>5</v>
+      <c r="A79" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B79" s="1">
         <v>2011</v>
       </c>
-      <c r="C79">
-        <v>69571.086766700013</v>
+      <c r="C79" s="1">
+        <v>54757.044479999997</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>5</v>
+      <c r="A80" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B80" s="1">
         <v>2012</v>
       </c>
-      <c r="C80">
-        <v>69027.617006299988</v>
+      <c r="C80" s="1">
+        <v>53863.520940000002</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>5</v>
+      <c r="A81" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B81" s="1">
         <v>2013</v>
       </c>
-      <c r="C81">
-        <v>66732.400546300007</v>
+      <c r="C81" s="1">
+        <v>53108.694170000002</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>5</v>
+      <c r="A82" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B82" s="1">
         <v>2014</v>
       </c>
-      <c r="C82">
-        <v>65145.149749299977</v>
+      <c r="C82" s="1">
+        <v>52909.696459999999</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>5</v>
+      <c r="A83" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B83" s="1">
         <v>2015</v>
       </c>
-      <c r="C83">
-        <v>63672.731158100003</v>
+      <c r="C83" s="1">
+        <v>52289.789879999997</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>5</v>
+      <c r="A84" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B84" s="1">
         <v>2016</v>
       </c>
-      <c r="C84">
-        <v>62458.3862285</v>
+      <c r="C84" s="1">
+        <v>52164.949200000003</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>5</v>
+      <c r="A85" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B85" s="1">
         <v>2017</v>
       </c>
-      <c r="C85">
-        <v>60225.184603600013</v>
+      <c r="C85" s="1">
+        <v>51351.180829999998</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>6</v>
+      <c r="A86" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B86" s="1">
         <v>1990</v>
       </c>
-      <c r="C86">
-        <v>1003.1198450000001</v>
+      <c r="C86" s="1">
+        <v>76275.166589999993</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>6</v>
+      <c r="A87" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B87" s="1">
         <v>1991</v>
       </c>
-      <c r="C87">
-        <v>978.52028389999998</v>
+      <c r="C87" s="1">
+        <v>73602.105100000001</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>6</v>
+      <c r="A88" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B88" s="1">
         <v>1992</v>
       </c>
-      <c r="C88">
-        <v>945.40423450000003</v>
+      <c r="C88" s="1">
+        <v>72708.412939999995</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>6</v>
+      <c r="A89" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B89" s="1">
         <v>1993</v>
       </c>
-      <c r="C89">
-        <v>946.22401049999996</v>
+      <c r="C89" s="1">
+        <v>74460.424379999997</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>6</v>
+      <c r="A90" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B90" s="1">
         <v>1994</v>
       </c>
-      <c r="C90">
-        <v>919.95059030000004</v>
+      <c r="C90" s="1">
+        <v>76092.324009999997</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>6</v>
+      <c r="A91" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B91" s="1">
         <v>1995</v>
       </c>
-      <c r="C91">
-        <v>893.46048819999999</v>
+      <c r="C91" s="1">
+        <v>76097.063330000004</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>6</v>
+      <c r="A92" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B92" s="1">
         <v>1996</v>
       </c>
-      <c r="C92">
-        <v>862.96764880000001</v>
+      <c r="C92" s="1">
+        <v>74758.039789999995</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>6</v>
+      <c r="A93" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B93" s="1">
         <v>1997</v>
       </c>
-      <c r="C93">
-        <v>844.711859</v>
+      <c r="C93" s="1">
+        <v>73672.800990000003</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>6</v>
+      <c r="A94" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B94" s="1">
         <v>1998</v>
       </c>
-      <c r="C94">
-        <v>823.92220420000001</v>
+      <c r="C94" s="1">
+        <v>72276.880430000005</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>6</v>
+      <c r="A95" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B95" s="1">
         <v>1999</v>
       </c>
-      <c r="C95">
-        <v>808.83052290000001</v>
+      <c r="C95" s="1">
+        <v>70711.79969</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>6</v>
+      <c r="A96" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B96" s="1">
         <v>2000</v>
       </c>
-      <c r="C96">
-        <v>781.99136150000004</v>
+      <c r="C96" s="1">
+        <v>67490.967839999998</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>6</v>
+      <c r="A97" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B97" s="1">
         <v>2001</v>
       </c>
-      <c r="C97">
-        <v>755.35873579999998</v>
+      <c r="C97" s="1">
+        <v>65017.185870000001</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>6</v>
+      <c r="A98" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B98" s="1">
         <v>2002</v>
       </c>
-      <c r="C98">
-        <v>733.29528319999997</v>
+      <c r="C98" s="1">
+        <v>62285.983919999999</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>6</v>
+      <c r="A99" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B99" s="1">
         <v>2003</v>
       </c>
-      <c r="C99">
-        <v>708.94769610000003</v>
+      <c r="C99" s="1">
+        <v>62296.629269999998</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>6</v>
+      <c r="A100" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B100" s="1">
         <v>2004</v>
       </c>
-      <c r="C100">
-        <v>667.28071890000001</v>
+      <c r="C100" s="1">
+        <v>60843.285309999999</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>6</v>
+      <c r="A101" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B101" s="1">
         <v>2005</v>
       </c>
-      <c r="C101">
-        <v>659.84354189999999</v>
+      <c r="C101" s="1">
+        <v>58887.60269</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>6</v>
+      <c r="A102" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B102" s="1">
         <v>2006</v>
       </c>
-      <c r="C102">
-        <v>645.13275329999999</v>
+      <c r="C102" s="1">
+        <v>56429.222650000003</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>6</v>
+      <c r="A103" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B103" s="1">
         <v>2007</v>
       </c>
-      <c r="C103">
-        <v>623.49793090000003</v>
+      <c r="C103" s="1">
+        <v>53111.664680000002</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>6</v>
+      <c r="A104" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B104" s="1">
         <v>2008</v>
       </c>
-      <c r="C104">
-        <v>605.34544080000001</v>
+      <c r="C104" s="1">
+        <v>50393.372759999998</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>6</v>
+      <c r="A105" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B105" s="1">
         <v>2009</v>
       </c>
-      <c r="C105">
-        <v>580.40623149999999</v>
+      <c r="C105" s="1">
+        <v>47865.114959999999</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>6</v>
+      <c r="A106" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B106" s="1">
         <v>2010</v>
       </c>
-      <c r="C106">
-        <v>551.80807489999995</v>
+      <c r="C106" s="1">
+        <v>45661.618119999999</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>6</v>
+      <c r="A107" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B107" s="1">
         <v>2011</v>
       </c>
-      <c r="C107">
-        <v>542.9901284</v>
+      <c r="C107" s="1">
+        <v>43222.314810000003</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>6</v>
+      <c r="A108" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B108" s="1">
         <v>2012</v>
       </c>
-      <c r="C108">
-        <v>540.00967439999999</v>
+      <c r="C108" s="1">
+        <v>41448.499179999999</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>6</v>
+      <c r="A109" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B109" s="1">
         <v>2013</v>
       </c>
-      <c r="C109">
-        <v>533.84633699999995</v>
+      <c r="C109" s="1">
+        <v>40428.130969999998</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>6</v>
+      <c r="A110" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B110" s="1">
         <v>2014</v>
       </c>
-      <c r="C110">
-        <v>530.66505800000004</v>
+      <c r="C110" s="1">
+        <v>39440.04477</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>6</v>
+      <c r="A111" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B111" s="1">
         <v>2015</v>
       </c>
-      <c r="C111">
-        <v>526.29340460000003</v>
+      <c r="C111" s="1">
+        <v>37181.298300000002</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>6</v>
+      <c r="A112" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B112" s="1">
         <v>2016</v>
       </c>
-      <c r="C112">
-        <v>524.30361749999997</v>
+      <c r="C112" s="1">
+        <v>36618.568090000001</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>6</v>
+      <c r="A113" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B113" s="1">
         <v>2017</v>
       </c>
-      <c r="C113">
-        <v>526.73684509999998</v>
+      <c r="C113" s="1">
+        <v>35915.422160000002</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>8</v>
+      <c r="A114" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B114" s="1">
         <v>1990</v>
       </c>
-      <c r="C114">
-        <v>1082251.8770000001</v>
+      <c r="C114" s="1">
+        <v>1003.1198450000001</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>8</v>
+      <c r="A115" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B115" s="1">
         <v>1991</v>
       </c>
-      <c r="C115">
-        <v>1060024.477</v>
+      <c r="C115" s="1">
+        <v>978.52028389999998</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>8</v>
+      <c r="A116" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B116" s="1">
         <v>1992</v>
       </c>
-      <c r="C116">
-        <v>1032982.594</v>
+      <c r="C116" s="1">
+        <v>945.40423450000003</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>8</v>
+      <c r="A117" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B117" s="1">
         <v>1993</v>
       </c>
-      <c r="C117">
-        <v>1002520.943</v>
+      <c r="C117" s="1">
+        <v>946.22401049999996</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>8</v>
+      <c r="A118" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B118" s="1">
         <v>1994</v>
       </c>
-      <c r="C118">
-        <v>973525.8602</v>
+      <c r="C118" s="1">
+        <v>919.95059030000004</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>8</v>
+      <c r="A119" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B119" s="1">
         <v>1995</v>
       </c>
-      <c r="C119">
-        <v>941660.63280000002</v>
+      <c r="C119" s="1">
+        <v>893.46048819999999</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>8</v>
+      <c r="A120" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B120" s="1">
         <v>1996</v>
       </c>
-      <c r="C120">
-        <v>909243.42180000001</v>
+      <c r="C120" s="1">
+        <v>862.96764880000001</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>8</v>
+      <c r="A121" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B121" s="1">
         <v>1997</v>
       </c>
-      <c r="C121">
-        <v>876302.24930000002</v>
+      <c r="C121" s="1">
+        <v>844.711859</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>8</v>
+      <c r="A122" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B122" s="1">
         <v>1998</v>
       </c>
-      <c r="C122">
-        <v>849742.30519999994</v>
+      <c r="C122" s="1">
+        <v>823.92220420000001</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>8</v>
+      <c r="A123" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B123" s="1">
         <v>1999</v>
       </c>
-      <c r="C123">
-        <v>822367.83050000004</v>
+      <c r="C123" s="1">
+        <v>808.83052290000001</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>8</v>
+      <c r="A124" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B124" s="1">
         <v>2000</v>
       </c>
-      <c r="C124">
-        <v>801112.99529999995</v>
+      <c r="C124" s="1">
+        <v>781.99136150000004</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>8</v>
+      <c r="A125" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B125" s="1">
         <v>2001</v>
       </c>
-      <c r="C125">
-        <v>773643.04949999996</v>
+      <c r="C125" s="1">
+        <v>755.35873579999998</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>8</v>
+      <c r="A126" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B126" s="1">
         <v>2002</v>
       </c>
-      <c r="C126">
-        <v>755613.03280000004</v>
+      <c r="C126" s="1">
+        <v>733.29528319999997</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>8</v>
+      <c r="A127" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B127" s="1">
         <v>2003</v>
       </c>
-      <c r="C127">
-        <v>740196.74509999994</v>
+      <c r="C127" s="1">
+        <v>708.94769610000003</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>8</v>
+      <c r="A128" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B128" s="1">
         <v>2004</v>
       </c>
-      <c r="C128">
-        <v>718860.71750000003</v>
+      <c r="C128" s="1">
+        <v>667.28071890000001</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>8</v>
+      <c r="A129" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B129" s="1">
         <v>2005</v>
       </c>
-      <c r="C129">
-        <v>686358.95129999996</v>
+      <c r="C129" s="1">
+        <v>659.84354189999999</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>8</v>
+      <c r="A130" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B130" s="1">
         <v>2006</v>
       </c>
-      <c r="C130">
-        <v>643781.25910000002</v>
+      <c r="C130" s="1">
+        <v>645.13275329999999</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>8</v>
+      <c r="A131" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B131" s="1">
         <v>2007</v>
       </c>
-      <c r="C131">
-        <v>615371.02029999997</v>
+      <c r="C131" s="1">
+        <v>623.49793090000003</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>8</v>
+      <c r="A132" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B132" s="1">
         <v>2008</v>
       </c>
-      <c r="C132">
-        <v>598397.72349999996</v>
+      <c r="C132" s="1">
+        <v>605.34544080000001</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>8</v>
+      <c r="A133" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B133" s="1">
         <v>2009</v>
       </c>
-      <c r="C133">
-        <v>585198.61459999997</v>
+      <c r="C133" s="1">
+        <v>580.40623149999999</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>8</v>
+      <c r="A134" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B134" s="1">
         <v>2010</v>
       </c>
-      <c r="C134">
-        <v>569593.87170000002</v>
+      <c r="C134" s="1">
+        <v>551.80807489999995</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>8</v>
+      <c r="A135" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B135" s="1">
         <v>2011</v>
       </c>
-      <c r="C135">
-        <v>550217.03119999997</v>
+      <c r="C135" s="1">
+        <v>542.9901284</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>8</v>
+      <c r="A136" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B136" s="1">
         <v>2012</v>
       </c>
-      <c r="C136">
-        <v>544086.23880000005</v>
+      <c r="C136" s="1">
+        <v>540.00967439999999</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>8</v>
+      <c r="A137" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B137" s="1">
         <v>2013</v>
       </c>
-      <c r="C137">
-        <v>522024.6691</v>
+      <c r="C137" s="1">
+        <v>533.84633699999995</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>8</v>
+      <c r="A138" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B138" s="1">
         <v>2014</v>
       </c>
-      <c r="C138">
-        <v>519990.3652</v>
+      <c r="C138" s="1">
+        <v>530.66505800000004</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>8</v>
+      <c r="A139" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B139" s="1">
         <v>2015</v>
       </c>
-      <c r="C139">
-        <v>517889.55050000001</v>
+      <c r="C139" s="1">
+        <v>526.29340460000003</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>8</v>
+      <c r="A140" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B140" s="1">
         <v>2016</v>
       </c>
-      <c r="C140">
-        <v>523738.04590000003</v>
+      <c r="C140" s="1">
+        <v>524.30361749999997</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>8</v>
+      <c r="A141" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B141" s="1">
         <v>2017</v>
       </c>
-      <c r="C141">
-        <v>496297.79889999999</v>
+      <c r="C141" s="1">
+        <v>526.73684509999998</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>7</v>
+      <c r="A142" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B142" s="1">
         <v>1990</v>
       </c>
-      <c r="C142">
-        <v>193919.180417</v>
+      <c r="C142" s="1">
+        <v>1082251.8770000001</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>7</v>
+      <c r="A143" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B143" s="1">
         <v>1991</v>
       </c>
-      <c r="C143">
-        <v>188755.96084099999</v>
+      <c r="C143" s="1">
+        <v>1060024.477</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>7</v>
+      <c r="A144" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B144" s="1">
         <v>1992</v>
       </c>
-      <c r="C144">
-        <v>186032.365559</v>
+      <c r="C144" s="1">
+        <v>1032982.594</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>7</v>
+      <c r="A145" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B145" s="1">
         <v>1993</v>
       </c>
-      <c r="C145">
-        <v>182099.53578199999</v>
+      <c r="C145" s="1">
+        <v>1002520.943</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>7</v>
+      <c r="A146" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B146" s="1">
         <v>1994</v>
       </c>
-      <c r="C146">
-        <v>174798.371078</v>
+      <c r="C146" s="1">
+        <v>973525.8602</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>7</v>
+      <c r="A147" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B147" s="1">
         <v>1995</v>
       </c>
-      <c r="C147">
-        <v>166932.55860300001</v>
+      <c r="C147" s="1">
+        <v>941660.63280000002</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>7</v>
+      <c r="A148" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B148" s="1">
         <v>1996</v>
       </c>
-      <c r="C148">
-        <v>159469.38577399999</v>
+      <c r="C148" s="1">
+        <v>909243.42180000001</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>7</v>
+      <c r="A149" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B149" s="1">
         <v>1997</v>
       </c>
-      <c r="C149">
-        <v>152784.09486899999</v>
+      <c r="C149" s="1">
+        <v>876302.24930000002</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>7</v>
+      <c r="A150" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B150" s="1">
         <v>1998</v>
       </c>
-      <c r="C150">
-        <v>147435.26303999999</v>
+      <c r="C150" s="1">
+        <v>849742.30519999994</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>7</v>
+      <c r="A151" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B151" s="1">
         <v>1999</v>
       </c>
-      <c r="C151">
-        <v>140960.89570699999</v>
+      <c r="C151" s="1">
+        <v>822367.83050000004</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>7</v>
+      <c r="A152" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B152" s="1">
         <v>2000</v>
       </c>
-      <c r="C152">
-        <v>135458.45929500001</v>
+      <c r="C152" s="1">
+        <v>801112.99529999995</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>7</v>
+      <c r="A153" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B153" s="1">
         <v>2001</v>
       </c>
-      <c r="C153">
-        <v>131627.73108</v>
+      <c r="C153" s="1">
+        <v>773643.04949999996</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>7</v>
+      <c r="A154" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B154" s="1">
         <v>2002</v>
       </c>
-      <c r="C154">
-        <v>129606.16439799999</v>
+      <c r="C154" s="1">
+        <v>755613.03280000004</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>7</v>
+      <c r="A155" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B155" s="1">
         <v>2003</v>
       </c>
-      <c r="C155">
-        <v>127690.26761900001</v>
+      <c r="C155" s="1">
+        <v>740196.74509999994</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>7</v>
+      <c r="A156" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B156" s="1">
         <v>2004</v>
       </c>
-      <c r="C156">
-        <v>124719.474569</v>
+      <c r="C156" s="1">
+        <v>718860.71750000003</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>7</v>
+      <c r="A157" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B157" s="1">
         <v>2005</v>
       </c>
-      <c r="C157">
-        <v>120566.657784</v>
+      <c r="C157" s="1">
+        <v>686358.95129999996</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>7</v>
+      <c r="A158" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B158" s="1">
         <v>2006</v>
       </c>
-      <c r="C158">
-        <v>116960.661737</v>
+      <c r="C158" s="1">
+        <v>643781.25910000002</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>7</v>
+      <c r="A159" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B159" s="1">
         <v>2007</v>
       </c>
-      <c r="C159">
-        <v>113145.291121</v>
+      <c r="C159" s="1">
+        <v>615371.02029999997</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>7</v>
+      <c r="A160" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B160" s="1">
         <v>2008</v>
       </c>
-      <c r="C160">
-        <v>110840.81998099999</v>
+      <c r="C160" s="1">
+        <v>598397.72349999996</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>7</v>
+      <c r="A161" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B161" s="1">
         <v>2009</v>
       </c>
-      <c r="C161">
-        <v>110012.035282</v>
+      <c r="C161" s="1">
+        <v>585198.61459999997</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>7</v>
+      <c r="A162" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B162" s="1">
         <v>2010</v>
       </c>
-      <c r="C162">
-        <v>106999.828997</v>
+      <c r="C162" s="1">
+        <v>569593.87170000002</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>7</v>
+      <c r="A163" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B163" s="1">
         <v>2011</v>
       </c>
-      <c r="C163">
-        <v>103227.683299</v>
+      <c r="C163" s="1">
+        <v>550217.03119999997</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
-        <v>7</v>
+      <c r="A164" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B164" s="1">
         <v>2012</v>
       </c>
-      <c r="C164">
-        <v>101262.29055000001</v>
+      <c r="C164" s="1">
+        <v>544086.23880000005</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>7</v>
+      <c r="A165" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B165" s="1">
         <v>2013</v>
       </c>
-      <c r="C165">
-        <v>99555.705233000015</v>
+      <c r="C165" s="1">
+        <v>522024.6691</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>7</v>
+      <c r="A166" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B166" s="1">
         <v>2014</v>
       </c>
-      <c r="C166">
-        <v>98980.998200000002</v>
+      <c r="C166" s="1">
+        <v>519990.3652</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
-        <v>7</v>
+      <c r="A167" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B167" s="1">
         <v>2015</v>
       </c>
-      <c r="C167">
-        <v>97638.848608</v>
+      <c r="C167" s="1">
+        <v>517889.55050000001</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
-        <v>7</v>
+      <c r="A168" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B168" s="1">
         <v>2016</v>
       </c>
-      <c r="C168">
-        <v>97339.943341000006</v>
+      <c r="C168" s="1">
+        <v>523738.04590000003</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
-        <v>7</v>
+      <c r="A169" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B169" s="1">
         <v>2017</v>
       </c>
-      <c r="C169">
-        <v>95711.999469000002</v>
+      <c r="C169" s="1">
+        <v>496297.79889999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1990</v>
+      </c>
+      <c r="C170" s="1">
+        <v>6478.1053069999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1991</v>
+      </c>
+      <c r="C171" s="1">
+        <v>6492.7772709999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C172" s="1">
+        <v>6350.1526389999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1993</v>
+      </c>
+      <c r="C173" s="1">
+        <v>6192.1940720000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1994</v>
+      </c>
+      <c r="C174" s="1">
+        <v>5945.6097680000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C175" s="1">
+        <v>5827.1716530000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C176" s="1">
+        <v>5651.2373639999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C177" s="1">
+        <v>5537.7436790000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C178" s="1">
+        <v>5429.8972400000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C179" s="1">
+        <v>5383.8561760000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C180" s="1">
+        <v>5031.9231300000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C181" s="1">
+        <v>4962.2557390000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4713.4250279999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2003</v>
+      </c>
+      <c r="C183" s="1">
+        <v>4499.6257859999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C184" s="1">
+        <v>4115.2319109999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C185" s="1">
+        <v>3753.4156619999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C186" s="1">
+        <v>3506.4362609999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C187" s="1">
+        <v>3383.4161290000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3037.7387199999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2910.6302580000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2768.8244890000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2524.9106550000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2431.9056390000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2321.5751310000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2224.1668180000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2102.1594770000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C196" s="1">
+        <v>2058.1265549999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1999.8199890000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1990</v>
+      </c>
+      <c r="C198" s="1">
+        <v>449606.32020000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1991</v>
+      </c>
+      <c r="C199" s="1">
+        <v>451639.06209999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C200" s="1">
+        <v>456371.40870000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1993</v>
+      </c>
+      <c r="C201" s="1">
+        <v>461425.40259999997</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1994</v>
+      </c>
+      <c r="C202" s="1">
+        <v>466755.46610000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C203" s="1">
+        <v>473640.32179999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C204" s="1">
+        <v>480174.02990000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C205" s="1">
+        <v>485613.1692</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C206" s="1">
+        <v>490349.66720000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C207" s="1">
+        <v>491721.74780000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C208" s="1">
+        <v>494810.77970000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C209" s="1">
+        <v>490407.9289</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C210" s="1">
+        <v>486398.28940000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2003</v>
+      </c>
+      <c r="C211" s="1">
+        <v>482601.3063</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C212" s="1">
+        <v>478190.05650000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C213" s="1">
+        <v>471831.96289999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C214" s="1">
+        <v>468687.98050000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C215" s="1">
+        <v>462366.55379999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C216" s="1">
+        <v>453372.46730000002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C217" s="1">
+        <v>447245.41590000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C218" s="1">
+        <v>440359.4094</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C219" s="1">
+        <v>433953.66440000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C220" s="1">
+        <v>425786.97090000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C221" s="1">
+        <v>421271.06270000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C222" s="1">
+        <v>416540.88589999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C223" s="1">
+        <v>401241.05099999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C224" s="1">
+        <v>398520.7107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C225" s="1">
+        <v>393269.48979999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1990</v>
+      </c>
+      <c r="C226" s="1">
+        <v>14309.72018</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1991</v>
+      </c>
+      <c r="C227" s="1">
+        <v>13139.428400000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C228" s="1">
+        <v>11900.22589</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1993</v>
+      </c>
+      <c r="C229" s="1">
+        <v>10989.68607</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1994</v>
+      </c>
+      <c r="C230" s="1">
+        <v>9931.4766839999993</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C231" s="1">
+        <v>9260.6576320000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C232" s="1">
+        <v>8643.2599499999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C233" s="1">
+        <v>7975.0355790000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C234" s="1">
+        <v>7423.4748740000005</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C235" s="1">
+        <v>6979.7089749999996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C236" s="1">
+        <v>6393.3554549999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C237" s="1">
+        <v>5872.8499359999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C238" s="1">
+        <v>5546.2911329999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2003</v>
+      </c>
+      <c r="C239" s="1">
+        <v>5190.1205440000003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2004</v>
+      </c>
+      <c r="C240" s="1">
+        <v>4632.2787070000004</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C241" s="1">
+        <v>4296.8438310000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C242" s="1">
+        <v>3962.4714859999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C243" s="1">
+        <v>3720.6811980000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C244" s="1">
+        <v>3500.1320780000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C245" s="1">
+        <v>3278.4337949999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C246" s="1">
+        <v>3043.3096110000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C247" s="1">
+        <v>2880.9821200000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C248" s="1">
+        <v>2834.240738</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C249" s="1">
+        <v>2732.5956609999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C250" s="1">
+        <v>2625.0654989999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2621.9210210000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B252" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C252" s="1">
+        <v>2586.8730820000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C253" s="1">
+        <v>2506.069336</v>
       </c>
     </row>
   </sheetData>
